--- a/data/tehilim-data/24.xlsx
+++ b/data/tehilim-data/24.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
   <si>
     <t>original</t>
   </si>
@@ -340,10 +340,16 @@
     <t>ז</t>
   </si>
   <si>
-    <t>שְׂאוּ־שְׁעָרִים</t>
-  </si>
-  <si>
-    <t>Поднимите врата</t>
+    <t>שְׂאוּ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поднимите </t>
+  </si>
+  <si>
+    <t>שְׁעָרִים֮</t>
+  </si>
+  <si>
+    <t>врата</t>
   </si>
   <si>
     <t>רָֽאשֵׁיכֶם֮</t>
@@ -361,9 +367,6 @@
     <t>פִתְחֵ֪י</t>
   </si>
   <si>
-    <t>врата</t>
-  </si>
-  <si>
     <t>עוֹלָ֥֫ם</t>
   </si>
   <si>
@@ -376,10 +379,16 @@
     <t>и войдет</t>
   </si>
   <si>
-    <t>מֶֽלֶךְ־הַכָּבֽוֹד</t>
-  </si>
-  <si>
-    <t>Царь славы</t>
+    <t>מֶֽלֶךְ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Царь </t>
+  </si>
+  <si>
+    <t>הַכָּב֑וֹד</t>
+  </si>
+  <si>
+    <t>славы</t>
   </si>
   <si>
     <t>ח</t>
@@ -397,9 +406,6 @@
     <t>это</t>
   </si>
   <si>
-    <t>מֶֽלֶךְ־הַכָּב֑וֹד</t>
-  </si>
-  <si>
     <t>יְהוָ֥ה</t>
   </si>
   <si>
@@ -430,13 +436,7 @@
     <t>в битве</t>
   </si>
   <si>
-    <t>שְׂאוּ</t>
-  </si>
-  <si>
     <t>Поднимите</t>
-  </si>
-  <si>
-    <t>שְׁעָרִים֮</t>
   </si>
   <si>
     <t>רָֽאשֵׁיכֶם֒</t>
@@ -470,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -486,6 +486,10 @@
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -508,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -536,6 +540,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,19 +1289,19 @@
       <c r="C58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C60" s="2"/>
@@ -1316,42 +1329,42 @@
         <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="7">
-        <v>8.0</v>
-      </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C67" s="2"/>
@@ -1360,17 +1373,17 @@
       <c r="A68" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>127</v>
+      <c r="B68" s="7">
+        <v>8.0</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C69" s="2"/>
     </row>
@@ -1379,31 +1392,31 @@
         <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>131</v>
+      <c r="A71" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>133</v>
+      <c r="A72" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>86</v>
@@ -1412,183 +1425,237 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="7">
-        <v>9.0</v>
+        <v>134</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
+      </c>
+      <c r="B78" s="7">
+        <v>9.0</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="7">
-        <v>10.0</v>
+        <v>118</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>127</v>
+      <c r="A87" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>122</v>
+      <c r="A88" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>86</v>
+        <v>143</v>
+      </c>
+      <c r="B89" s="7">
+        <v>10.0</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="7" t="s">
+      <c r="B97" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C99" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
